--- a/Куделин/Солнечная энергетика/Solar Europe Total.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Europe Total.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>413.48461674267213</c:v>
+                  <c:v>1.5146352619719032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>505.96236504086016</c:v>
+                  <c:v>1.9375400166119108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>613.73175370380852</c:v>
+                  <c:v>2.4790102882355658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>735.91985466442429</c:v>
+                  <c:v>3.1691695856029147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869.84822916321548</c:v>
+                  <c:v>4.0473126180106282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1017.8042881417139</c:v>
+                  <c:v>5.1658451603117168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>161.5449130988483</c:v>
+                  <c:v>89.540251193506421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.55880451469335</c:v>
+                  <c:v>110.90802395560507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191.96766447096033</c:v>
+                  <c:v>124.16649445990262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.31069645275537</c:v>
+                  <c:v>141.43050867411793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239.69756121064376</c:v>
+                  <c:v>169.10096317161253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>269.45894153106275</c:v>
+                  <c:v>192.72821029374174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799973024"/>
-        <c:axId val="1799961600"/>
+        <c:axId val="-85353456"/>
+        <c:axId val="-85358896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799973024"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799961600"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799961600"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799973024"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6548515365664</c:v>
+                  <c:v>21.740605589570187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.1309084378495</c:v>
+                  <c:v>30.443095874273521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.7146960532705</c:v>
+                  <c:v>39.930415965891754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.4262515636101</c:v>
+                  <c:v>51.250140656402941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1794.0264815091175</c:v>
+                  <c:v>66.676810217280675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4585714418017</c:v>
+                  <c:v>21.893211309157589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8486921687779</c:v>
+                  <c:v>30.910617858494479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2665849015998</c:v>
+                  <c:v>40.985720023427724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.3371146342579</c:v>
+                  <c:v>53.305175973727209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7915450660773</c:v>
+                  <c:v>70.419417089038959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799953984"/>
-        <c:axId val="1799952352"/>
+        <c:axId val="-85357808"/>
+        <c:axId val="-85352368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799953984"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799952352"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799952352"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799953984"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.7029637411697</c:v>
+                  <c:v>22.278800756592297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.6117918869757</c:v>
+                  <c:v>31.917294112362843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1406723192304</c:v>
+                  <c:v>43.06432723353997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0723608681667</c:v>
+                  <c:v>57.127574618873574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1890306730174</c:v>
+                  <c:v>77.119724174131008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.1008333794982</c:v>
+                  <c:v>22.285697521041037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4428288085655</c:v>
+                  <c:v>31.935183968683191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5691020226654</c:v>
+                  <c:v>43.101500043605071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2569618332677</c:v>
+                  <c:v>57.196737651456544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.5011014132378</c:v>
+                  <c:v>77.242740805833847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799977920"/>
-        <c:axId val="1799949632"/>
+        <c:axId val="-85372496"/>
+        <c:axId val="-85344208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799977920"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799949632"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799949632"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799977920"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.63888277948860384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.6992299715988195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.74965579192971099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.81185196528479286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.90528789922853969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>1.0594311355048751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>1.423788417945723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>1.7994765721321591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>2.255640902039568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>2.9718345488807878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>4.1876869395573308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>5.7628250982908593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>7.8187626848272016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>12.698194298744079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>21.073503873656769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>33.912263179829672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>65.648612993412343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>101.52151966290219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>138.59293640973411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>197.26150234678809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>255.9794773336148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>328.41494798557272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>445.47996089304161</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>575.760244320575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>705.2251576877859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>854.37473965683262</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>1059.2936809324981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>1322.6156827866339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799964320"/>
-        <c:axId val="1799974656"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799964320"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799974656"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799974656"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799964320"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799947456"/>
-        <c:axId val="1799950176"/>
+        <c:axId val="-85356720"/>
+        <c:axId val="-85351824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799947456"/>
+        <c:axId val="-85356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799950176"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799950176"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799947456"/>
+        <c:crossAx val="-85356720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799962144"/>
-        <c:axId val="1799963776"/>
+        <c:axId val="-85347472"/>
+        <c:axId val="-85351280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799962144"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799963776"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799963776"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799962144"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799958880"/>
-        <c:axId val="1799975200"/>
+        <c:axId val="-85371952"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799958880"/>
+        <c:axId val="-85371952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799975200"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799975200"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799958880"/>
+        <c:crossAx val="-85371952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.55752571883910484</v>
+        <v>1.1107521951147434E-3</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.73022230423542356</v>
+        <v>1.888913562693325E-3</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.94752219863171716</v>
+        <v>2.2993882043591801E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2271662403458738</v>
+        <v>2.7873361568020033E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5854714188696886</v>
+        <v>3.5803321225319207E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0516743094525256</v>
+        <v>4.8822853448554568E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.6292164047651565</v>
+        <v>7.6009250045205624E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3775673253925964</v>
+        <v>9.7506383318753838E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.3295226696789646</v>
+        <v>1.2120278142122836E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.5471717259625333</v>
+        <v>1.5433924818785385E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>7.0859582976990056</v>
+        <v>2.0091671080684308E-2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>9.0281652533821966</v>
+        <v>2.5506882485396357E-2</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.483049284017641</v>
+        <v>3.2072960434316934E-2</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.530783374462359</v>
+        <v>4.2279137399098672E-2</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>18.282007832741971</v>
+        <v>5.5301430289630339E-2</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>23.035817525311398</v>
+        <v>7.1619754946170441E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.827039170829774</v>
+        <v>9.4527808912833508E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.845105405771122</v>
+        <v>0.12214801989192087</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>44.270821192628986</v>
+        <v>0.15646934786614941</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>54.204191424599216</v>
+        <v>0.20140219235496756</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>65.506019476642948</v>
+        <v>0.25760359258407228</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>78.357689188411882</v>
+        <v>0.32924868984300182</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>92.477748298188033</v>
+        <v>0.42290475464000743</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>107.76938866294836</v>
+        <v>0.54147027162365513</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>122.1881009606158</v>
+        <v>0.69015929736734893</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.92837449879119</v>
+        <v>0.87814303240771385</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.95605897849839</v>
+        <v>1.118532542301089</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.60243471883910482</v>
+        <v>4.6019752195114741E-2</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.3326570230745283</v>
+        <v>4.7908665757808069E-2</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.2801792217062453</v>
+        <v>5.0208053962167251E-2</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.5073454620521192</v>
+        <v>5.2995390118969254E-2</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>5.0928168809218075</v>
+        <v>5.6575722241501175E-2</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>7.1444911903743336</v>
+        <v>6.1458007586356632E-2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.7737075951394896</v>
+        <v>6.9058932590877198E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>13.151274920532085</v>
+        <v>7.8809570922752578E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.480797590211051</v>
+        <v>9.0929849064875418E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>23.027969316173582</v>
+        <v>0.10636377388366081</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>30.113927613872587</v>
+        <v>0.1264554449643451</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>39.142092867254782</v>
+        <v>0.15196232744974147</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>50.625142151272421</v>
+        <v>0.1840352878840584</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>65.155925525734773</v>
+        <v>0.22631442528315707</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>83.437933358476741</v>
+        <v>0.2816158555727874</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>106.47375088378814</v>
+        <v>0.35323561051895785</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>135.30079005461792</v>
+        <v>0.44776341943179138</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>171.14589546038906</v>
+        <v>0.56991143932371224</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>215.41671665301806</v>
+        <v>0.72638078718986165</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>269.62090807761729</v>
+        <v>0.92778297954482924</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>335.12692755426025</v>
+        <v>1.1853865721289014</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>413.48461674267213</v>
+        <v>1.5146352619719032</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>505.96236504086016</v>
+        <v>1.9375400166119108</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>613.73175370380852</v>
+        <v>2.4790102882355658</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>735.91985466442429</v>
+        <v>3.1691695856029147</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>869.84822916321548</v>
+        <v>4.0473126180106282</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1017.8042881417139</v>
+        <v>5.1658451603117168</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>771.36890044184713</v>
+        <v>-241.269542539555</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>481.49414596659926</v>
+        <v>-119.17431553410259</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>198478.92048622112</v>
+        <v>64248.429455210084</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.3075826105336007</v>
+        <v>3.2893586635731341E-6</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.6273078708145545</v>
+        <v>8.2602262543181063E-5</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.8974916970403344</v>
+        <v>2.8708036363695035E-4</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.744715613309138</v>
+        <v>7.449441729643066E-4</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>25.18335125891247</v>
+        <v>3.2182665619795008E-4</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.305345238101388</v>
+        <v>1.7643408396881312E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>89.471065213043801</v>
+        <v>6.0385234615809899E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>160.84477075312958</v>
+        <v>0.15210481538503198</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>279.88660009704984</v>
+        <v>0.43567395458636671</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>462.91416140844979</v>
+        <v>1.9773013352846478</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>758.68701916846851</v>
+        <v>5.9692182699155518</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1243.5466666698123</v>
+        <v>13.884368892443998</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>1852.0793086353619</v>
+        <v>54.838702754405851</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>2583.8931419316673</v>
+        <v>198.74238416296421</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>3592.9216594782251</v>
+        <v>538.95167224145371</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>3516.9550501935464</v>
+        <v>2191.7934960170332</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>3980.4578635680714</v>
+        <v>5149.8071406169702</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>7158.2770371838251</v>
+        <v>7390.7347109302427</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>13730.980329838581</v>
+        <v>9508.4087883690081</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>25757.687451648602</v>
+        <v>11707.479840223159</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>49190.879284059367</v>
+        <v>12577.930126728448</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>84027.373282085202</v>
+        <v>14907.244457512954</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>136081.3698321697</v>
+        <v>18260.857625548033</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>213973.95746905927</v>
+        <v>22105.609165991285</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>312927.62791928736</v>
+        <v>30050.686880018922</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>450400.58831137203</v>
+        <v>37901.08455671111</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>595009.98056886427</v>
+        <v>58210.992157246139</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>313.01060600164135</v>
+        <v>-97.903772989533806</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>392.01472517325806</v>
+        <v>-97.027319943892209</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1292.7800918723285</v>
+        <v>698.302401860082</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.55460130772799365</v>
+        <v>1.8136589159963717E-3</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2756597786300838</v>
+        <v>9.0885786866363796E-3</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.2130277217062453</v>
+        <v>1.6943446037832752E-2</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.4270564064965634</v>
+        <v>2.7293665436586317E-2</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>5.0183016309218074</v>
+        <v>1.793952775849883E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.950204690374334</v>
+        <v>0.13282849241364336</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.4589145895839337</v>
+        <v>0.24573407296467842</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.68245917608764</v>
+        <v>0.39000617352169181</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>16.729811717322161</v>
+        <v>0.66005602382401352</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>21.515440070062471</v>
+        <v>1.4061654722274501</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>27.544273799983699</v>
+        <v>2.443198368924544</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>35.263957047810337</v>
+        <v>3.7261734919947029</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>43.035791019050201</v>
+        <v>7.4053158443381637</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>50.832009029072097</v>
+        <v>14.097602071379523</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>59.940984805708901</v>
+        <v>23.215332697195052</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>59.30392103557358</v>
+        <v>46.816594237695604</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>63.090869890722473</v>
+        <v>71.762156744463653</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>84.606601617035921</v>
+        <v>85.969382404029417</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>117.17926578468813</v>
+        <v>97.511070081140062</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>160.49201678478778</v>
+        <v>108.20110831328466</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>221.79016949373425</v>
+        <v>112.15137148839709</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>289.87475447524781</v>
+        <v>122.0952270054524</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>368.89208426336518</v>
+        <v>135.13274076088308</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>462.57319147250553</v>
+        <v>148.67955194306742</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>559.39934565504041</v>
+        <v>173.35133942378098</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>671.11890772900449</v>
+        <v>194.68200881620035</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>771.36890044184713</v>
+        <v>241.269542539555</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7788992062277877</v>
+        <v>-4.4254628805964532E-3</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.9038693084735883</v>
+        <v>-1.1582734001123248E-3</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4581609046986941</v>
+        <v>-1.5985898581952866E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9280904613212879</v>
+        <v>-2.5071236870916752E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.4119477550144621</v>
+        <v>-2.8625049729793343E-3</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>7.0020361815677656</v>
+        <v>-2.9157600247817876E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.488078558469887</v>
+        <v>3.7991253535751921E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.1232807814357173</v>
+        <v>-2.6575670540955165E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.8265523678486488</v>
+        <v>-4.9811882708333519E-2</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.6785589965355694</v>
+        <v>-8.1497682225644283E-2</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.593734362637106</v>
+        <v>-0.15387735613788645</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.647773911028729</v>
+        <v>-0.56384089070156551</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.922470714826664</v>
+        <v>-0.88764815225649385</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>14.073917087128587</v>
+        <v>-1.088887750329401</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>15.435867887611748</v>
+        <v>-3.3451023529759603</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>18.28789311793118</v>
+        <v>-5.7263962004415925</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>21.640906831787323</v>
+        <v>-6.7090156452236211</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>27.966695939138333</v>
+        <v>-25.366509505506698</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>35.130236478798111</v>
+        <v>-22.185498695678646</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>40.289456947661954</v>
+        <v>-27.470443919884655</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>44.285259383692505</v>
+        <v>-21.966651971197606</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>48.20815503832231</v>
+        <v>-23.796506867019577</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>50.948942247269059</v>
+        <v>-12.701838311819223</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>54.897383693465351</v>
+        <v>-12.903786317592367</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>59.152134221452378</v>
+        <v>-9.7280535571850635</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>63.177052201259869</v>
+        <v>-7.4195458377713663</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>70.729620096851747</v>
+        <v>-6.0011111404692414</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.8238082062277878</v>
+        <v>4.0483537119403543E-2</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.9517027195846994</v>
+        <v>4.6675137710998786E-2</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.5151581491431383</v>
+        <v>5.5398654586249166E-2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9952419613212875</v>
+        <v>6.4644376312908328E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4922368105700174</v>
+        <v>7.7426550582576234E-2</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.0765514315677658</v>
+        <v>7.1599489975218214E-2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.6823650584698866</v>
+        <v>0.19808562535357518</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.4380737869912732</v>
+        <v>0.28821733501460045</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>9.2953681122930938</v>
+        <v>0.41900386173611087</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>10.429544869424458</v>
+        <v>0.66948819066324472</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>12.106263608748216</v>
+        <v>1.3586518899732245</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>14.217427724917618</v>
+        <v>2.0058129231873236</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>16.800606534271108</v>
+        <v>2.9904876671879501</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>21.663268219350808</v>
+        <v>6.5004633818928212</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>29.759784384274425</v>
+        <v>10.978814143686719</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>41.784841670699024</v>
+        <v>17.770552352326249</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>68.810736680001881</v>
+        <v>40.460814202990939</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>100.17661610303378</v>
+        <v>46.843410658388748</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>121.66953032215125</v>
+        <v>64.353795147674489</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>138.52690781599188</v>
+        <v>70.767006948445271</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>153.41415067652201</v>
+        <v>87.162239321631887</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>161.5449130988483</v>
+        <v>89.540251193506421</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>174.55880451469335</v>
+        <v>110.90802395560507</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>191.96766447096033</v>
+        <v>124.16649445990262</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>210.31069645275537</v>
+        <v>141.43050867411793</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>239.69756121064376</v>
+        <v>169.10096317161253</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>269.45894153106275</v>
+        <v>192.72821029374174</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>23.02355383119604</v>
+        <v>-53.70717740612497</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>-14.911497000227953</v>
+        <v>-19.637566332207086</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>5522.6307333473615</v>
+        <v>8158.5810561052958</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.257985653356428</v>
+        <v>5.402064769397937E-5</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.958141688367991</v>
+        <v>1.065458874166443E-4</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.680776449107849</v>
+        <v>1.3812937531952409E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.986667877426477</v>
+        <v>2.4475598860531755E-4</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>41.187150029005259</v>
+        <v>8.4756710821086904E-6</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>47.365570588287468</v>
+        <v>1.5052102428820907E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>54.281117954884287</v>
+        <v>1.3620612593609614E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>63.509073748697318</v>
+        <v>3.2615785488589552E-2</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>73.006467853046018</v>
+        <v>0.11021205572904327</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>79.513167626414315</v>
+        <v>0.71071822117065242</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>90.946926379406861</v>
+        <v>1.4665256597274408</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>106.90095710658312</v>
+        <v>3.5055930278486525</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>84.84722608177475</v>
+        <v>21.149545170027032</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>53.866083709325203</v>
+        <v>61.206418639002194</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>39.223112652402783</v>
+        <v>156.70368908382073</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>28.998097671982116</v>
+        <v>864.31751728024506</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>11.554448357174801</v>
+        <v>1008.0057293167422</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>185.9765584143812</v>
+        <v>1575.7631418343383</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>549.0623475301951</v>
+        <v>1148.1021249959063</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>864.24337549612846</v>
+        <v>1471.6341704519114</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>1606.1973988966922</v>
+        <v>685.10543121271883</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>1439.0680815827222</v>
+        <v>1160.7383987280282</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>1405.389411994485</v>
+        <v>684.46368201452526</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>1665.3828256068052</v>
+        <v>728.57172257587058</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>1141.7767674581796</v>
+        <v>1231.3081235289649</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>1678.396670379288</v>
+        <v>877.83961333688603</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>530.08403101798183</v>
+        <v>2884.4609049329806</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>9.3426329903708449</v>
+        <v>-21.79361410201966</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>-12.140389343117208</v>
+        <v>-15.988180195498792</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>262.08523227755182</v>
+        <v>263.00070900088826</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7759747951166767</v>
+        <v>7.3498739917075701E-3</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8947054751402552</v>
+        <v>1.0322106733445663E-2</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4480066491431387</v>
+        <v>1.1752845413750837E-2</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9149529057657322</v>
+        <v>1.5644679242647244E-2</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.4177215605700173</v>
+        <v>2.9113005825762289E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.8822649315677662</v>
+        <v>0.12268701002478179</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.3675720529143307</v>
+        <v>0.11670738020198043</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>7.9692580425468291</v>
+        <v>0.18059840942984395</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.5443822394042055</v>
+        <v>0.33198201115277809</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>8.9170156233133469</v>
+        <v>0.84304105544786634</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>9.5366097948593271</v>
+        <v>1.2110019239156644</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>10.339291905473175</v>
+        <v>1.8723228962571206</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>9.2112554020488844</v>
+        <v>4.5988634650342721</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>7.3393517226881286</v>
+        <v>7.8234531147698583</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>6.2628358315065853</v>
+        <v>12.518134409081121</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>5.3849881775155382</v>
+        <v>29.399277495888313</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>3.3991834838935659</v>
+        <v>31.749105960904508</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>13.637322259680644</v>
+        <v>39.695883184964387</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>23.432079453821316</v>
+        <v>33.88365572065544</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>29.398016523162383</v>
+        <v>38.361884344384222</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>40.077392615996018</v>
+        <v>26.174518738894108</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>37.935050831423993</v>
+        <v>34.069611073917883</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>37.488523737198364</v>
+        <v>26.162256821889912</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>40.809102239657335</v>
+        <v>26.992067771400372</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>33.79018744337148</v>
+        <v>35.090000335265955</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>40.968239776432767</v>
+        <v>29.628358262598454</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>23.02355383119604</v>
+        <v>53.70717740612497</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.809904310081864E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>2.3075193447592846E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.2295874631632637E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>4.876805667653264E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003863</v>
+        <v>7.9878453959266599E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>1.7124289923916777E-3</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>2.4506140647875541E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819021</v>
+        <v>3.7646323615687441E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>6.6728226663601495E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905567</v>
+        <v>1.278024271430335E-2</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.0876088773911214E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>3.3776982169187592E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511873028</v>
+        <v>8.2880406438914866E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.16876137929769441</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.31253823902639394</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.84181839011006165</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404441</v>
+        <v>1.2143056331726909</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>1.574740456893009</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>2.6875662967603215</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>3.2340078658219715</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189099</v>
+        <v>4.3647572241229504</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>7.1297899808359695</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>8.7024902847033339</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>9.4873200916182334</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>11.319724690511187</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>15.426669560877734</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>10.009625730557861</v>
+        <v>4.5384739129540358E-2</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>13.003483377795911</v>
+        <v>4.5565729560548544E-2</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.771138871424249</v>
+        <v>4.5796481495024473E-2</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.680284376936772</v>
+        <v>4.6119440241340799E-2</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.042578727071636</v>
+        <v>4.6607120808106126E-2</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.726427217872022</v>
+        <v>4.7405905347698792E-2</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.755348171332024</v>
+        <v>4.9118334340090469E-2</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.585681735901197</v>
+        <v>5.1568948404878023E-2</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.311596939720218</v>
+        <v>5.5333580766446767E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.08800064406645</v>
+        <v>6.2006403432806917E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.77949498197202</v>
+        <v>7.4786646147110267E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.84774431733297</v>
+        <v>9.5662734921021481E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.90522145231606</v>
+        <v>0.12943971709020907</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.46972496418908</v>
+        <v>0.21232012352912394</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.53520524351319</v>
+        <v>0.38108150282681835</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.03457815671521</v>
+        <v>0.69361974185321229</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.85764893282266</v>
+        <v>1.5354381319632739</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.38109998686707</v>
+        <v>2.7497437651359649</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.70465849177435</v>
+        <v>4.3244842220289739</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.32636816417187</v>
+        <v>7.0120505187892954</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.77808881339138</v>
+        <v>10.246058384611267</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.7006417252824</v>
+        <v>14.610815608734217</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6548515365664</v>
+        <v>21.740605589570187</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.1309084378495</v>
+        <v>30.443095874273521</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.7146960532705</v>
+        <v>39.930415965891754</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.4262515636101</v>
+        <v>51.250140656402941</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1794.0264815091175</v>
+        <v>66.676810217280675</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1547.5910938092509</v>
+        <v>-179.75857748258602</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>564.50031435139272</v>
+        <v>-70.759530823895943</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>3502185.1559889386</v>
+        <v>56744.107169201801</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.23730621578828</v>
+        <v>5.9959944733296462E-6</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.61150320106182</v>
+        <v>1.306795325407336E-4</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.02319410470074</v>
+        <v>4.5603681534784734E-4</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>466.55979788369035</v>
+        <v>1.1675626107214207E-3</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>782.2125746575083</v>
+        <v>7.7886367499143934E-4</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1334.5973054304031</v>
+        <v>2.1573909085413616E-2</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2156.7251641055273</v>
+        <v>7.0583030925445517E-2</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3614.0375766347697</v>
+        <v>0.17409488880528351</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6015.6483890602785</v>
+        <v>0.4839321115352076</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10115.425446920932</v>
+        <v>2.1040165171315484</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>16695.183054681271</v>
+        <v>6.2243621846758854</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>27214.971727946609</v>
+        <v>14.307102635144137</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>43813.133567858342</v>
+        <v>55.650278321616916</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>65099.383578547662</v>
+        <v>199.13715219823609</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>90022.955478021599</v>
+        <v>534.34330947054912</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>133857.01405484256</v>
+        <v>2160.038105850645</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>188050.35266644906</v>
+        <v>4994.8824104819032</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>272318.87063912483</v>
+        <v>7020.6887023100635</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>392461.16222751583</v>
+        <v>8819.645304309237</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>549373.69972044404</v>
+        <v>10427.849169670679</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>731779.87036023324</v>
+        <v>10627.692359669643</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>966467.48065505887</v>
+        <v>11880.792172503299</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1242298.7653741837</v>
+        <v>13300.933978952238</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1590051.2578976424</v>
+        <v>14572.223817795113</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>1839262.6729716284</v>
+        <v>18656.853517629836</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2012700.979558581</v>
+        <v>21750.108762893386</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>2395038.1936377133</v>
+        <v>32313.146178562882</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>627.99060973096118</v>
+        <v>-72.943492069212766</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>459.59527741803498</v>
+        <v>-57.609792895057254</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>5996.6364320333569</v>
+        <v>663.09780120851315</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9617923194467508</v>
+        <v>2.4486719815707547E-3</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.946486133351467</v>
+        <v>1.1431514883895905E-2</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.703987371424247</v>
+        <v>2.135501850497553E-2</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.599995321381215</v>
+        <v>3.4169615314214773E-2</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.968063477071635</v>
+        <v>2.790812919189388E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.532140717872025</v>
+        <v>0.14688059465230122</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.440555165776466</v>
+        <v>0.26567467121546517</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.116865991456756</v>
+        <v>0.41724679603956638</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>77.560611066831328</v>
+        <v>0.69565229212244217</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>100.57547139795534</v>
+        <v>1.4505228426783041</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>129.20984116808313</v>
+        <v>2.4948671677417789</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>164.96960849788852</v>
+        <v>3.7824730845234229</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>209.31587032009384</v>
+        <v>7.4599114151320132</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>255.14580846752639</v>
+        <v>14.111596373133555</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>300.03825669074536</v>
+        <v>23.115867049941023</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>365.86474830850068</v>
+        <v>46.47621010636135</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>433.64772876892721</v>
+        <v>70.674482031932172</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>521.84180614351396</v>
+        <v>83.789550078217175</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>626.46720762344444</v>
+        <v>93.912966646300958</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>741.19747687134236</v>
+        <v>102.1168407740402</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>855.44133075286538</v>
+        <v>103.09069967591472</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>983.09077945785805</v>
+        <v>108.99904665869009</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1114.5845707590715</v>
+        <v>115.32967518792481</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1260.9723462065465</v>
+        <v>120.71546635702947</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1356.1941870438866</v>
+        <v>136.59009304349212</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1418.6969301293991</v>
+        <v>147.47918077780804</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1547.5910938092509</v>
+        <v>179.75857748258602</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.6475651849084255E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.1545862792211878E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>3.0660939328767262E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.6844563461866801E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187248</v>
+        <v>7.7404226334816528E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>1.6635887076395309E-3</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>2.4200979345686269E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658747</v>
+        <v>3.7565307008763649E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>6.6914414554175225E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359799</v>
+        <v>1.2857281875348132E-2</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.1082447572240745E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>3.4147970540995276E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371527</v>
+        <v>8.3607512230684328E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.16993034085934983</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.31378246731402248</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.8430131595011886</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705482</v>
+        <v>1.2112922319202302</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>1.5667806936683322</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>2.6769805058273795</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>3.2343172209425068</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173115</v>
+        <v>4.4019597425020791</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>7.2616930202792389</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>9.01740654933689</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>10.075102164933245</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>12.319455950299485</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>17.114241115311749</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3549895600049116</v>
+        <v>4.5305742887823727E-2</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.124403904627167</v>
+        <v>4.547049940631457E-2</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.688119877016018</v>
+        <v>4.5685958034236689E-2</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.412563213762073</v>
+        <v>4.5992567427524361E-2</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.633635619776548</v>
+        <v>4.6461013062143029E-2</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.216505002395273</v>
+        <v>4.7235055325491195E-2</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.317473227059097</v>
+        <v>4.8898644033130725E-2</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.311236030105782</v>
+        <v>5.1318741967699352E-2</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.372246116764529</v>
+        <v>5.5075272668575717E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.65745370742196</v>
+        <v>6.176671412399324E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.06234846478176</v>
+        <v>7.4623995999341372E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.99311576938496</v>
+        <v>9.5706443571582117E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.96911075716926</v>
+        <v>0.12985441411257739</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.30729708354079</v>
+        <v>0.21346192634326172</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.75879535331882</v>
+        <v>0.38339226720261155</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.29779833976147</v>
+        <v>0.69717473451663403</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.46948603638583</v>
+        <v>1.5401878940178226</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.77161963344065</v>
+        <v>2.7514801259380528</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.65085081073971</v>
+        <v>4.318260819606385</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.27494644191029</v>
+        <v>6.9952413254337644</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.21121236083138</v>
+        <v>10.229558546376271</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2735434525625</v>
+        <v>14.63151828887835</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4585714418017</v>
+        <v>21.893211309157589</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8486921687779</v>
+        <v>30.910617858494479</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2665849015998</v>
+        <v>40.985720023427724</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.3371146342579</v>
+        <v>53.305175973727209</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7915450660773</v>
+        <v>70.419417089038959</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1648.3561573662107</v>
+        <v>-176.01597061082776</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>663.69247618107238</v>
+        <v>-67.0376266322818</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>3502694.3661208032</v>
+        <v>56746.162866882441</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.008843282104095</v>
+        <v>6.3891066470168073E-6</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.48749018185688</v>
+        <v>1.3286585117405178E-4</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>213.7727162817024</v>
+        <v>4.6076949188394599E-4</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>373.73682412805948</v>
+        <v>1.1762490979161859E-3</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>653.26863407672647</v>
+        <v>7.8704021016541873E-4</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1157.5113518247274</v>
+        <v>2.1624127380860128E-2</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1936.2358666758987</v>
+        <v>7.0699811489417994E-2</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3345.7455845030868</v>
+        <v>0.17430374707706725</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5718.575000871966</v>
+        <v>0.48429156349899666</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>9829.7160464390345</v>
+        <v>2.1047119242176731</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>16510.372578647595</v>
+        <v>6.225173792157948</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>27262.956603869254</v>
+        <v>14.306771983465969</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>44259.643259850498</v>
+        <v>55.644091287488571</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>66040.457897860251</v>
+        <v>199.10492818104814</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>91362.224031279751</v>
+        <v>534.23648416599178</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>135518.20118571332</v>
+        <v>2159.7076733167141</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>189450.88968350881</v>
+        <v>4994.2110590961829</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>272726.60210012412</v>
+        <v>7020.3977275442503</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>391141.92082752462</v>
+        <v>8820.8142594082528</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>546336.89084244799</v>
+        <v>10431.282455662513</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>729101.58370664436</v>
+        <v>10631.094591650677</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>969562.56504506746</v>
+        <v>11876.279456306282</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1262001.2516016727</v>
+        <v>13265.757331314218</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1645293.9694390162</v>
+        <v>14459.568125886051</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>1950899.6005203037</v>
+        <v>18369.679025467667</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2201092.0840439131</v>
+        <v>21148.182082911942</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>2717078.0215270999</v>
+        <v>30981.621910071783</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>668.87964944942939</v>
+        <v>-71.424795056299857</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>540.35386687282892</v>
+        <v>-54.579556160054402</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>5981.4705417730911</v>
+        <v>663.10453799873642</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3071561488938013</v>
+        <v>2.5276682232873854E-3</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.067406660182723</v>
+        <v>1.1526745038129879E-2</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.620968377016018</v>
+        <v>2.1465541965763314E-2</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.332274158206516</v>
+        <v>3.4296488128031211E-2</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.559120369776547</v>
+        <v>2.8054236937856976E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.022218502395276</v>
+        <v>0.14705144467450881</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.002680221503539</v>
+        <v>0.2658943615224249</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>57.842420285661341</v>
+        <v>0.41749700247674504</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>75.621260243875639</v>
+        <v>0.69591060022031326</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>99.14492446131085</v>
+        <v>1.4507625319871178</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>128.49269465089287</v>
+        <v>2.4950298178895474</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>165.1149799499405</v>
+        <v>3.7824293758728622</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>210.37975962494704</v>
+        <v>7.4594967181096452</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>256.98338058687813</v>
+        <v>14.110454570319417</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>302.26184680055098</v>
+        <v>23.113556285565227</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>368.12796849154688</v>
+        <v>46.472655113697925</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>435.25956587249038</v>
+        <v>70.669732269877628</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>522.23232579008754</v>
+        <v>83.787813717415077</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>625.4133999424098</v>
+        <v>93.91919004872355</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>739.14605514908078</v>
+        <v>102.13364996739573</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>853.87445430030539</v>
+        <v>103.10719951414973</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>984.66368118513822</v>
+        <v>108.97834397854595</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1123.3882906643066</v>
+        <v>115.17706946833739</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1282.6901299374749</v>
+        <v>120.24794437280852</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1396.7460758922159</v>
+        <v>135.53478898595617</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1483.6077932000469</v>
+        <v>145.42414546048377</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1648.3561573662107</v>
+        <v>176.01597061082776</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737854</v>
+        <v>1.1839014549797078E-4</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166009</v>
+        <v>1.7649615734314367E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.7196768101142577E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>4.364485704518653E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>7.4322735660284356E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573254</v>
+        <v>1.6033321793276073E-3</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>2.4396413773989864E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398959</v>
+        <v>3.8646138158544216E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>6.9067681854918447E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687753</v>
+        <v>1.3255866682955968E-2</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.171252807688813E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>3.4943665251089343E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290332</v>
+        <v>8.4881598295829419E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.17117470247307939</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.31354918254163217</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.83906965886154239</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441057</v>
+        <v>1.1988286866332913</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>1.5500646773803108</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>2.664386543278483</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>3.2582889004116193</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584684</v>
+        <v>4.509325616412001</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>7.5576760865238644</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>9.6384933557705459</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>11.147033121177127</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>14.063247385333604</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485074</v>
+        <v>19.992149555257434</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6718408817343056</v>
+        <v>4.5082158300729924E-2</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.797737031708091</v>
+        <v>4.5200548446227895E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8660750449246919</v>
+        <v>4.5377044603571039E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.271868096098409</v>
+        <v>4.5649012284582464E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.441740078711391</v>
+        <v>4.608546085503433E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.246650076289132</v>
+        <v>4.6828688211637173E-2</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.139410974862386</v>
+        <v>4.8432020390964781E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.247153383028191</v>
+        <v>5.0871661768363767E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.82709062242715</v>
+        <v>5.4736275584218189E-2</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.919347167129402</v>
+        <v>6.1643043769710033E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.27448350081715</v>
+        <v>7.4898910452666001E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>172.00305612335669</v>
+        <v>9.6611438529554131E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.33216486929334</v>
+        <v>0.13155510378064347</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.09478304958367</v>
+        <v>0.21643670207647289</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.81876450242271</v>
+        <v>0.38761140454955229</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.83531749871435</v>
+        <v>0.70116058709118445</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.48385821320272</v>
+        <v>1.5402302459527268</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.97800667464378</v>
+        <v>2.7390589325860182</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.71705202389614</v>
+        <v>4.289123609966329</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.18200525709881</v>
+        <v>6.953510153244812</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.52471516274932</v>
+        <v>10.211799053656431</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0814557985962</v>
+        <v>14.721124670068432</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.7029637411697</v>
+        <v>22.278800756592297</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.6117918869757</v>
+        <v>31.917294112362843</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1406723192304</v>
+        <v>43.06432723353997</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0723608681667</v>
+        <v>57.127574618873574</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1890306730174</v>
+        <v>77.119724174131008</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1828.7536429731508</v>
+        <v>-169.31566352573572</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>837.28204944197887</v>
+        <v>-60.426925928379831</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>3504185.9073683685</v>
+        <v>56745.69745088878</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.133430147132723</v>
+        <v>7.5693920266303877E-6</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>32.95609330507186</v>
+        <v>1.3916203647433846E-4</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.421055549430108</v>
+        <v>4.7412690781107442E-4</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.01775758288952</v>
+        <v>1.1999325978148893E-3</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>375.08939756585494</v>
+        <v>8.0825291082720812E-4</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>786.93510221631311</v>
+        <v>2.1743806257412231E-2</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1507.3509604626227</v>
+        <v>7.0948174417851381E-2</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2892.1095991695138</v>
+        <v>0.17467725624395053</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5340.1170853654885</v>
+        <v>0.48476350174691618</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9683.9018133404461</v>
+        <v>2.1050707721446531</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>16823.342844115068</v>
+        <v>6.2238020282190787</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>28265.988827196841</v>
+        <v>14.299926643453741</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>46114.476051714417</v>
+        <v>55.618721601838992</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>68523.98657586718</v>
+        <v>199.02098615465806</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>93833.05492669424</v>
+        <v>534.04146343002174</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>137392.90373518283</v>
+        <v>2159.3372228996723</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>189463.40114495219</v>
+        <v>4994.2050730981746</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>269816.57638782804</v>
+        <v>7022.4793710997519</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>384994.93545017054</v>
+        <v>8826.2881946445868</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>538833.97412064055</v>
+        <v>10439.808511019399</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>726224.31423006079</v>
+        <v>10634.757170168526</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>983015.92077924125</v>
+        <v>11856.757175545821</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1312474.2442745473</v>
+        <v>13177.083885389304</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>1767445.8898418988</v>
+        <v>14218.480022612974</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2180407.1066931975</v>
+        <v>17810.552454187091</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>2573916.588180183</v>
+        <v>20051.054701154917</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>3344339.8866875703</v>
+        <v>28667.793915160153</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>742.08240141240879</v>
+        <v>-68.705905067475541</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>681.68407706304356</v>
+        <v>-49.197368149356208</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>5947.0963670416177</v>
+        <v>663.10518226350018</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6240074706231944</v>
+        <v>2.7512528103811884E-3</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7407397872636468</v>
+        <v>1.1796695998216554E-2</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.7989235449246923</v>
+        <v>2.1774455396428964E-2</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.191579040542853</v>
+        <v>3.4640043270973107E-2</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.36722482871139</v>
+        <v>2.8429789144965675E-2</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.052363576289132</v>
+        <v>0.14745781178836281</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>38.824617969306829</v>
+        <v>0.26636098516459084</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>53.77833763858375</v>
+        <v>0.41794408267608063</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.07610474953826</v>
+        <v>0.69624959730467073</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>98.406817921018288</v>
+        <v>1.4508862023414011</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>129.70482968692826</v>
+        <v>2.4947549034362231</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>168.12492030391223</v>
+        <v>3.78152438091489</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>214.74281373707112</v>
+        <v>7.457796028441579</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>261.77086655292101</v>
+        <v>14.107479794586206</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>306.32181594965488</v>
+        <v>23.109337148218287</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>370.66548765049981</v>
+        <v>46.468669261123374</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>435.27393804930728</v>
+        <v>70.669689917942719</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>519.43871283129067</v>
+        <v>83.800234910767117</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>620.47960115556623</v>
+        <v>93.948327258363605</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>734.0531139642693</v>
+        <v>102.17538113958469</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>852.18795710222332</v>
+        <v>103.12495900686956</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>991.47159353117183</v>
+        <v>108.88873759735587</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1145.6326829636746</v>
+        <v>114.7914800209027</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1329.4532296556727</v>
+        <v>119.24126811894016</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1476.6201633098465</v>
+        <v>133.4561817758439</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1604.3430394339557</v>
+        <v>141.60174681533741</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1828.7536429731508</v>
+        <v>169.31566352573572</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983957</v>
+        <v>1.1639199134281381E-4</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987479</v>
+        <v>1.7473057050693824E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.7037958110278509E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>4.3498383580171246E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>7.4178602145776734E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412958</v>
+        <v>1.6005768421568783E-3</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>2.439507052046562E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.62752815761381</v>
+        <v>3.8670683649141141E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>6.9117423676853945E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432152</v>
+        <v>1.3264847650729078E-2</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.1727184698070626E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>3.4962281515779209E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547881</v>
+        <v>8.4910234225626435E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.17120532603066813</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.31355602372607327</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.83902407807655277</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634658</v>
+        <v>1.1986346010281308</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>1.5497954408669319</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>2.6641983077960179</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>3.2587223992437071</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791272</v>
+        <v>4.5112001286456636</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>7.5628646245153917</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>9.649486447642154</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>11.16631607492188</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>14.095237607851473</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957997012</v>
+        <v>20.046003154377303</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.5193158390269206</v>
+        <v>4.5074876394679525E-2</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.6146230718253163</v>
+        <v>4.5191268386022339E-2</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6578994012240642</v>
+        <v>4.5365998956529277E-2</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.046052852723438</v>
+        <v>4.5636378537632062E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.209292169457129</v>
+        <v>4.6071362373433775E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>28.018357853845608</v>
+        <v>4.6813148394891542E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.936392016258566</v>
+        <v>4.841372523704842E-2</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.079624320004925</v>
+        <v>5.0853232289094982E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.707152477618735</v>
+        <v>5.4720300654009096E-2</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.853690978906727</v>
+        <v>6.1632043021694491E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.26557801633888</v>
+        <v>7.4896890672423569E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.04508523872045</v>
+        <v>9.6624075370494195E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.41234351304934</v>
+        <v>0.1315863568862734</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.19116608559722</v>
+        <v>0.21649659111189984</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.90586248123475</v>
+        <v>0.38770191714256796</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.89729597656128</v>
+        <v>0.70125794086864124</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.50142743651605</v>
+        <v>1.540282018945194</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.94599957615071</v>
+        <v>2.7389166199733248</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.64736447989242</v>
+        <v>4.2887120608402567</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.10880655275832</v>
+        <v>6.9529103686362745</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.50892414323721</v>
+        <v>10.211632767879982</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.2112395911499</v>
+        <v>14.722832896525645</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.1008333794982</v>
+        <v>22.285697521041037</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4428288085655</v>
+        <v>31.935183968683191</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5691020226654</v>
+        <v>43.101500043605071</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2569618332677</v>
+        <v>57.196737651456544</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.5011014132378</v>
+        <v>77.242740805833847</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1832.0657137133712</v>
+        <v>-169.19264689403286</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>840.4643363896455</v>
+        <v>-60.305617523134202</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>3504302.0001567355</v>
+        <v>56745.560780561878</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.051190247328243</v>
+        <v>7.6095137817583E-6</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.887204837170923</v>
+        <v>1.3938107069203607E-4</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>73.800949502385677</v>
+        <v>4.7460805571506408E-4</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.11103084394932</v>
+        <v>1.2008080245085242E-3</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>366.1396877573892</v>
+        <v>8.0905474331272747E-4</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>774.17894670389171</v>
+        <v>2.1748389433643947E-2</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1491.6279101435355</v>
+        <v>7.0957920983005851E-2</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2874.1187961253895</v>
+        <v>0.17469266156721061</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5322.6022456570981</v>
+        <v>0.48478574707956468</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9670.9840909558643</v>
+        <v>2.1051026939326913</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>16821.032754727654</v>
+        <v>6.2238121059364842</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>28280.12287698533</v>
+        <v>14.299831070569208</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>46148.918055452908</v>
+        <v>55.618255444241662</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>68574.456407273348</v>
+        <v>199.01929639153036</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>93886.422534822646</v>
+        <v>534.0372800661579</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>137438.85414194444</v>
+        <v>2159.3281751081781</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>189478.69630366992</v>
+        <v>4994.1977555382082</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>269783.32596019702</v>
+        <v>7022.5032227807542</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>384908.46090750647</v>
+        <v>8826.3655235179158</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>538726.51600497228</v>
+        <v>10439.931077821098</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>726197.40064609994</v>
+        <v>10634.791466623939</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>983273.29151030967</v>
+        <v>11856.385165218948</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1313386.0274972531</v>
+        <v>13175.500553357806</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>1769656.2299030053</v>
+        <v>14214.213924351725</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2184627.6433085413</v>
+        <v>17800.631953410564</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>2580931.059366161</v>
+        <v>20031.472272222407</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>3356464.7793640844</v>
+        <v>28626.151763008889</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>743.4263929434685</v>
+        <v>-68.655986655655283</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>684.27497739622959</v>
+        <v>-49.098603332500332</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>5945.6252850824276</v>
+        <v>663.104586150572</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4714824279158094</v>
+        <v>2.7585347164315877E-3</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5576258273808721</v>
+        <v>1.180597605842211E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.5907479012240646</v>
+        <v>2.1785501043470726E-2</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.965763797167883</v>
+        <v>3.465267701792351E-2</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.134776919457128</v>
+        <v>2.844388762656623E-2</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.824071353845607</v>
+        <v>0.14747335160510847</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.621599010703008</v>
+        <v>0.26637928031850722</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>53.610808575560483</v>
+        <v>0.41796251215534941</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>72.956166604729844</v>
+        <v>0.69626557223487984</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>98.341161732795612</v>
+        <v>1.4508972030894165</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>129.69592420244999</v>
+        <v>2.4947569232164652</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>168.16694941927599</v>
+        <v>3.7815117440739501</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>214.82299238082712</v>
+        <v>7.4577647753359493</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>261.86724958893456</v>
+        <v>14.107419905550779</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>306.40891392846692</v>
+        <v>23.109246635625272</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>370.72746612834669</v>
+        <v>46.468571907345918</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>435.29150727262061</v>
+        <v>70.669638144950255</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>519.4067057327976</v>
+        <v>83.800377223379812</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>620.4099136115625</v>
+        <v>93.948738807489676</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>733.97991525992882</v>
+        <v>102.17598092419323</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>852.17216608271121</v>
+        <v>103.12512529264602</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>991.60137732372561</v>
+        <v>108.88702937089866</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1146.0305526020034</v>
+        <v>114.78458325645394</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1330.2842665772625</v>
+        <v>119.2233782626198</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1478.0485930132816</v>
+        <v>133.4190089657788</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1606.5276403990567</v>
+        <v>141.53258378275444</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1832.0657137133712</v>
+        <v>169.19264689403286</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
